--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_MCPS_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.6972508068188654</v>
+        <v>-0.6784825858354047</v>
       </c>
       <c r="D2">
-        <v>0.4856780147675694</v>
+        <v>0.5020579705809041</v>
       </c>
       <c r="E2">
         <v>1.367422455733191</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.7322490529933068</v>
+        <v>-0.5630798537717454</v>
       </c>
       <c r="D3">
-        <v>0.4640506249306942</v>
+        <v>0.5770752146457516</v>
       </c>
       <c r="E3">
         <v>1.367422455733191</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.274370495877356</v>
+        <v>0.2851267948780875</v>
       </c>
       <c r="D4">
-        <v>0.7838111611905001</v>
+        <v>0.7772767155594895</v>
       </c>
       <c r="E4">
         <v>1.367422455733191</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.565159442820511</v>
+        <v>-1.242126134174354</v>
       </c>
       <c r="D5">
-        <v>0.1176083219469568</v>
+        <v>0.222689885957307</v>
       </c>
       <c r="E5">
         <v>1.367422455733191</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.09179861476815909</v>
+        <v>0.1085816834644833</v>
       </c>
       <c r="D6">
-        <v>0.9268616936855405</v>
+        <v>0.914172578542064</v>
       </c>
       <c r="E6">
         <v>1.513041783358252</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.9423150934373498</v>
+        <v>0.9035809080278292</v>
       </c>
       <c r="D7">
-        <v>0.3460765166252378</v>
+        <v>0.3725754512689345</v>
       </c>
       <c r="E7">
         <v>1.513041783358252</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.7410383551151838</v>
+        <v>-0.8311938037316891</v>
       </c>
       <c r="D8">
-        <v>0.4587047155316273</v>
+        <v>0.411663586094916</v>
       </c>
       <c r="E8">
         <v>1.513041783358252</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.8481718709512797</v>
+        <v>0.7720790654991723</v>
       </c>
       <c r="D9">
-        <v>0.3963825469549476</v>
+        <v>0.4454013246620354</v>
       </c>
       <c r="E9">
         <v>1.491335590921319</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.8857632070769292</v>
+        <v>-0.9517360894739235</v>
       </c>
       <c r="D10">
-        <v>0.3757874069983487</v>
+        <v>0.3479480590197954</v>
       </c>
       <c r="E10">
         <v>1.491335590921319</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.730414354135459</v>
+        <v>-1.260965183996505</v>
       </c>
       <c r="D11">
-        <v>0.08361749464503321</v>
+        <v>0.2159056654889755</v>
       </c>
       <c r="E11">
         <v>1.323932665522638</v>
